--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Desktop\exc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12EAA22B-8DD5-48D8-B73D-FA4C07165B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85739F7-667D-45E7-A4BB-A7B6CBDB3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B060705-92FF-4A59-B9E3-F4DB6570E331}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Ballesteros</t>
+  </si>
+  <si>
+    <t>Pontevedra</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Lucas</t>
   </si>
 </sst>
 </file>
@@ -428,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3D2E5C-46EE-47F3-A2E0-6052AC9946A2}">
-  <dimension ref="C5:G8"/>
+  <dimension ref="C5:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,6 +528,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>694565633</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>654232222</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>677676534</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Desktop\exc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85739F7-667D-45E7-A4BB-A7B6CBDB3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1E52B-1DB1-41C8-8AE9-701054E84136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B060705-92FF-4A59-B9E3-F4DB6570E331}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Lucas</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Fores</t>
   </si>
 </sst>
 </file>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3D2E5C-46EE-47F3-A2E0-6052AC9946A2}">
-  <dimension ref="C5:G11"/>
+  <dimension ref="C5:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,6 +588,40 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>677543333</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>685332435</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
